--- a/medicine/Mort/Cimetière_civil_de_Madrid/Cimetière_civil_de_Madrid.xlsx
+++ b/medicine/Mort/Cimetière_civil_de_Madrid/Cimetière_civil_de_Madrid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_civil_de_Madrid</t>
+          <t>Cimetière_civil_de_Madrid</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière civil de Madrid (en espagnol : cementerio civil de Madrid) est un cimetière de Madrid, célèbre pour accueillir les sépultures de personnalités républicaines espagnoles, politiques, intellectuels et artistes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_civil_de_Madrid</t>
+          <t>Cimetière_civil_de_Madrid</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière fait partie de la Nécropole de l'Est[1], avec le cimetière de l'Almudena (duquel il est séparé l'ancienne route de Vicálvaro) et le cimetière juif de Madrid[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière fait partie de la Nécropole de l'Est, avec le cimetière de l'Almudena (duquel il est séparé l'ancienne route de Vicálvaro) et le cimetière juif de Madrid.
 Il est inauguré en 1884.
-Dans ce cimetière reposent trois des quatre présidents de la Première République, plusieurs dirigeants socialistes et communistes, libre-penseurs, intellectuels, artistes et plusieurs membres de l'Institution Libre d'Enseignement[3].
+Dans ce cimetière reposent trois des quatre présidents de la Première République, plusieurs dirigeants socialistes et communistes, libre-penseurs, intellectuels, artistes et plusieurs membres de l'Institution Libre d'Enseignement.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_civil_de_Madrid</t>
+          <t>Cimetière_civil_de_Madrid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Femmes et hommes politiques
-Francisco Pi i Margall (1824-1901), homme d'État espagnol et écrivain ;
+          <t>Femmes et hommes politiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Francisco Pi i Margall (1824-1901), homme d'État espagnol et écrivain ;
 Nicolás Salmerón (1838-1908), homme d'État espagnol ;
 Dolores Ibárruri (1895-1989), femme politique basque espagnole connue sous le nom de la Pasionaria.
 Francisco Largo Caballero (1869-1946), homme d'État espagnol ;
@@ -561,9 +580,43 @@
 Américo Castro
 Francisco García Lorca
 Antonio García Quejido
-Mateo Morral
-Arts et lettres
-Alice Pestana (1860-1929), journaliste portugaise, pédagogue à l'Institution libre d'enseignement;
+Mateo Morral</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_civil_de_Madrid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_civil_de_Madrid</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités célèbres inhumées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arts et lettres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alice Pestana (1860-1929), journaliste portugaise, pédagogue à l'Institution libre d'enseignement;
 Carmen de Burgos (1867-1932), écrivaine et militante des droits des femmes en Espagne;
 Pío Baroja (1872-1956), écrivain de la génération de 98 ;
 Xavier Zubiri
@@ -578,9 +631,43 @@
 Juan Manuel Díaz Caneja
 José del Castillo Sáenz de Tejada
 Concepción García Lorca
-Almudena Grandes (1960-2021), romancière et journaliste espagnole.
-Universitaires
-Francisco Giner de los Ríos
+Almudena Grandes (1960-2021), romancière et journaliste espagnole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_civil_de_Madrid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_civil_de_Madrid</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités célèbres inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Universitaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Francisco Giner de los Ríos
 Gloria Giner de los Ríos García
 Laura de los Ríos Giner
 Fernando de los Ríos
